--- a/RealVsNominal.xlsx
+++ b/RealVsNominal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcallah/Documents/CoursesTaught/Macroeconomics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcallah/TechProjects/MacroModels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="14720" windowWidth="34200" windowHeight="26100" tabRatio="500"/>
+    <workbookView xWindow="16200" yWindow="1140" windowWidth="34200" windowHeight="26100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -649,820 +649,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Real</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> versus</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> Nominal</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Qty</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$4:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Cherries</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pears</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Year 2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v> Cherries </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Pears</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>540.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Price</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent4">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$4:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Cherries</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pears</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Year 2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v> Cherries </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Pears</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="315"/>
-        <c:overlap val="-40"/>
-        <c:axId val="-2111718096"/>
-        <c:axId val="-2111714464"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2111718096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2111714464"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2111714464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2111718096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Price versus Qty.</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Price</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$14:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>540.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$14:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2109371168"/>
-        <c:axId val="2109376576"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2109371168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2109376576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2109376576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2109371168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="accent1">
-        <a:lumMod val="40000"/>
-        <a:lumOff val="60000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1523,7 +709,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$33</c:f>
+              <c:f>Sheet1!$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1546,7 +732,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$32:$I$32</c:f>
+              <c:f>Sheet1!$C$34:$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1560,7 +746,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$33:$I$33</c:f>
+              <c:f>Sheet1!$C$35:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1580,7 +766,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$34</c:f>
+              <c:f>Sheet1!$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1603,7 +789,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$32:$I$32</c:f>
+              <c:f>Sheet1!$C$34:$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1617,7 +803,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$34:$I$34</c:f>
+              <c:f>Sheet1!$C$36:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1641,11 +827,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2136126048"/>
-        <c:axId val="-2136227536"/>
+        <c:axId val="-2097850640"/>
+        <c:axId val="-2097395648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2136126048"/>
+        <c:axId val="-2097850640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,7 +874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136227536"/>
+        <c:crossAx val="-2097395648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1696,7 +882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136227536"/>
+        <c:axId val="-2097395648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1747,7 +933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136126048"/>
+        <c:crossAx val="-2097850640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1831,7 +1017,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1913,7 +1099,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$32</c:f>
+              <c:f>Sheet1!$I$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1934,7 +1120,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$33:$M$34</c:f>
+              <c:f>Sheet1!$H$35:$H$36</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1948,7 +1134,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$33:$N$34</c:f>
+              <c:f>Sheet1!$I$35:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1967,7 +1153,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$32</c:f>
+              <c:f>Sheet1!$J$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1988,7 +1174,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$33:$M$34</c:f>
+              <c:f>Sheet1!$H$35:$H$36</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2002,7 +1188,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$33:$O$34</c:f>
+              <c:f>Sheet1!$J$35:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2026,11 +1212,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2136177520"/>
-        <c:axId val="-2136174192"/>
+        <c:axId val="2112759904"/>
+        <c:axId val="2112763232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2136177520"/>
+        <c:axId val="2112759904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,7 +1259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136174192"/>
+        <c:crossAx val="2112763232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2081,7 +1267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136174192"/>
+        <c:axId val="2112763232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2132,7 +1318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136177520"/>
+        <c:crossAx val="2112759904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2257,43 +1443,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2333,47 +1482,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -2930,46 +2039,33 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2978,14 +2074,38 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2995,18 +2115,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3014,571 +2139,6 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
@@ -3587,6 +2147,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3597,6 +2162,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3608,7 +2178,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3628,6 +2198,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3640,10 +2213,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3683,23 +2256,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3804,8 +2376,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3937,20 +2509,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3964,17 +2535,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3994,8 +2554,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4103,11 +2663,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4118,11 +2673,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4154,512 +2704,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5019,16 +3063,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15680</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>313</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>815309</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>352779</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>93760</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>329260</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>117278</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5049,20 +3093,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>524463</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>15992</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18816</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>94388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>39198</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294766</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>187835</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="11" name="Chart 10"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5079,76 +3123,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>520543</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>164943</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3136</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>86549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>627161</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>195987</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>818445</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>196301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>106617</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>85921</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>3135</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>188462</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>337098</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>78082</xdr:rowOff>
+      <xdr:colOff>219506</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>179996</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5161,7 +3145,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5433,10 +3417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O34"/>
+  <dimension ref="B1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" zoomScale="162" zoomScaleNormal="162" zoomScalePageLayoutView="162" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E10"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="162" zoomScaleNormal="162" zoomScalePageLayoutView="162" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5645,7 +3629,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
@@ -5660,7 +3644,7 @@
         <v>0.14503816793893129</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="str">
         <f>B4</f>
         <v>Cherries</v>
@@ -5678,7 +3662,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="str">
         <f>B5</f>
         <v>Pears</v>
@@ -5696,7 +3680,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="4" t="s">
@@ -5707,7 +3691,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>8</v>
       </c>
@@ -5715,7 +3699,7 @@
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>0</v>
       </c>
@@ -5729,7 +3713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="str">
         <f t="shared" ref="B24:D25" si="4">B4</f>
         <v>Cherries</v>
@@ -5747,7 +3731,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pears</v>
@@ -5765,7 +3749,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="4" t="s">
@@ -5776,7 +3760,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>5</v>
       </c>
@@ -5792,7 +3776,7 @@
       </c>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="str">
         <f>B4</f>
         <v>Cherries</v>
@@ -5810,7 +3794,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="str">
         <f>B5</f>
         <v>Pears</v>
@@ -5828,7 +3812,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="4" t="s">
@@ -5839,90 +3823,90 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G31" s="20" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="M31" s="20" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="H33" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G32" s="11" t="s">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="11" t="str">
+      <c r="C34" s="11" t="str">
         <f>B23</f>
         <v>Year 1</v>
       </c>
-      <c r="I32" s="11" t="str">
+      <c r="D34" s="11" t="str">
         <f>B27</f>
         <v>Year 2</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N32" s="11" t="str">
+      <c r="I34" s="11" t="str">
         <f>B13</f>
         <v>Year 1</v>
       </c>
-      <c r="O32" s="11" t="str">
+      <c r="J34" s="11" t="str">
         <f>B17</f>
         <v>Year 2</v>
       </c>
     </row>
-    <row r="33" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G33" s="10" t="str">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="10" t="str">
         <f>B24</f>
         <v>Cherries</v>
       </c>
-      <c r="H33" s="12">
+      <c r="C35" s="12">
         <f>D24</f>
         <v>10</v>
       </c>
-      <c r="I33" s="12">
+      <c r="D35" s="12">
         <f>D28</f>
         <v>11</v>
       </c>
-      <c r="M33" s="10" t="str">
+      <c r="H35" s="10" t="str">
         <f>B14</f>
         <v>Cherries</v>
       </c>
-      <c r="N33" s="13">
+      <c r="I35" s="13">
         <f>E14</f>
         <v>500</v>
       </c>
-      <c r="O33" s="13">
+      <c r="J35" s="13">
         <f>E18</f>
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G34" s="10" t="str">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="10" t="str">
         <f>B25</f>
         <v>Pears</v>
       </c>
-      <c r="H34" s="12">
+      <c r="C36" s="12">
         <f>D25</f>
         <v>1.5</v>
       </c>
-      <c r="I34" s="12">
+      <c r="D36" s="12">
         <f>D29</f>
         <v>2</v>
       </c>
-      <c r="M34" s="10" t="str">
+      <c r="H36" s="10" t="str">
         <f>B15</f>
         <v>Pears</v>
       </c>
-      <c r="N34" s="13">
+      <c r="I36" s="13">
         <f>E15</f>
         <v>810</v>
       </c>
-      <c r="O34" s="13">
+      <c r="J36" s="13">
         <f>E19</f>
         <v>900</v>
       </c>
@@ -5930,8 +3914,8 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B2:E2"/>
